--- a/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
+++ b/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="183">
   <si>
     <t>Size</t>
   </si>
@@ -576,12 +576,6 @@
   </si>
   <si>
     <t>tblEmplSites_Depts</t>
-  </si>
-  <si>
-    <t>tblTimeHistDetail</t>
-  </si>
-  <si>
-    <t>JobID</t>
   </si>
 </sst>
 </file>
@@ -963,9 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:XFD220"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5878,167 +5874,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A214" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A215" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A216" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A217" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A218" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A219" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A220" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
+++ b/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
@@ -15,7 +15,7 @@
     <sheet name="RealTableList" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RealTableList!$A$1:$G$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RealTableList!$A$1:$G$213</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -560,22 +560,22 @@
     <t>tblTimeHistDetail_COAS_pre</t>
   </si>
   <si>
+    <t>tblDeptNames</t>
+  </si>
+  <si>
+    <t>tblEmplAssignments</t>
+  </si>
+  <si>
+    <t>tblEmplNames_Depts</t>
+  </si>
+  <si>
+    <t>tblEmplSites</t>
+  </si>
+  <si>
+    <t>tblEmplSites_Depts</t>
+  </si>
+  <si>
     <t>BIG</t>
-  </si>
-  <si>
-    <t>tblDeptNames</t>
-  </si>
-  <si>
-    <t>tblEmplAssignments</t>
-  </si>
-  <si>
-    <t>tblEmplNames_Depts</t>
-  </si>
-  <si>
-    <t>tblEmplSites</t>
-  </si>
-  <si>
-    <t>tblEmplSites_Depts</t>
   </si>
 </sst>
 </file>
@@ -959,9 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:XFD220"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5530,109 +5528,109 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A200" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="E201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A201" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="E202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A202" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>17</v>
@@ -5645,124 +5643,124 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A205" s="3" t="s">
+      <c r="E207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="E208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A206" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A207" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A208" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A209" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="B209" s="3" t="s">
         <v>108</v>
       </c>
@@ -5770,7 +5768,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>17</v>
@@ -5783,8 +5781,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A210" s="3" t="s">
-        <v>177</v>
+      <c r="A210" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>108</v>
@@ -5793,45 +5791,45 @@
         <v>9</v>
       </c>
       <c r="D210" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A211" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="3" t="s">
+      <c r="E211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A212" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="B212" s="3" t="s">
         <v>108</v>
       </c>
@@ -5839,21 +5837,21 @@
         <v>9</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A213" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>108</v>

--- a/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
+++ b/SqlServerScripter/SqlServerScripter/Final-TableList.xlsx
@@ -15,7 +15,7 @@
     <sheet name="RealTableList" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RealTableList!$A$1:$G$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RealTableList!$A$1:$G$190</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="170">
   <si>
     <t>Size</t>
   </si>
@@ -245,30 +245,9 @@
     <t>Deptno</t>
   </si>
   <si>
-    <t>tblFixedPunch</t>
-  </si>
-  <si>
     <t>OrigRecordID</t>
   </si>
   <si>
-    <t>OldSiteNo</t>
-  </si>
-  <si>
-    <t>OldDeptNo</t>
-  </si>
-  <si>
-    <t>OldJobID</t>
-  </si>
-  <si>
-    <t>NewSiteNo</t>
-  </si>
-  <si>
-    <t>NewDeptNo</t>
-  </si>
-  <si>
-    <t>NewJobID</t>
-  </si>
-  <si>
     <t>tblGroupDepts</t>
   </si>
   <si>
@@ -558,24 +537,6 @@
   </si>
   <si>
     <t>tblTimeHistDetail_COAS_pre</t>
-  </si>
-  <si>
-    <t>tblDeptNames</t>
-  </si>
-  <si>
-    <t>tblEmplAssignments</t>
-  </si>
-  <si>
-    <t>tblEmplNames_Depts</t>
-  </si>
-  <si>
-    <t>tblEmplSites</t>
-  </si>
-  <si>
-    <t>tblEmplSites_Depts</t>
-  </si>
-  <si>
-    <t>BIG</t>
   </si>
 </sst>
 </file>
@@ -606,18 +567,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -638,11 +593,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,9 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:XFD213"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2525,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
@@ -2548,10 +2504,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -2571,10 +2527,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
@@ -2594,16 +2550,16 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
@@ -2617,16 +2573,16 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
@@ -2640,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>12</v>
@@ -2663,16 +2619,16 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -2686,16 +2642,16 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -2709,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
@@ -2732,10 +2688,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>12</v>
@@ -2755,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
@@ -2778,16 +2734,16 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -2801,13 +2757,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>13</v>
@@ -2824,10 +2780,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>12</v>
@@ -2847,16 +2803,16 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
@@ -2870,10 +2826,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>12</v>
@@ -2893,10 +2849,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>12</v>
@@ -2916,10 +2872,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>12</v>
@@ -2939,10 +2895,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>12</v>
@@ -2965,10 +2921,10 @@
         <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>13</v>
@@ -2985,7 +2941,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -3011,7 +2967,7 @@
         <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>12</v>
@@ -3077,10 +3033,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
@@ -3100,10 +3056,10 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>12</v>
@@ -3123,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -3146,10 +3102,10 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>12</v>
@@ -3169,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -3192,10 +3148,10 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>12</v>
@@ -3215,10 +3171,10 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>12</v>
@@ -3235,13 +3191,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
@@ -3258,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>100</v>
@@ -3278,16 +3234,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
@@ -3301,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3324,13 +3280,13 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -3347,22 +3303,22 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
@@ -3370,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3393,13 +3349,13 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>14</v>
@@ -3416,16 +3372,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>12</v>
@@ -3439,16 +3395,16 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>12</v>
@@ -3462,16 +3418,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>12</v>
@@ -3485,16 +3441,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>12</v>
@@ -3508,22 +3464,22 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
@@ -3531,16 +3487,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>12</v>
@@ -3554,13 +3510,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>14</v>
@@ -3577,16 +3533,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>12</v>
@@ -3600,16 +3556,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>12</v>
@@ -3623,16 +3579,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>12</v>
@@ -3646,16 +3602,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>12</v>
@@ -3669,13 +3625,13 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -3692,13 +3648,13 @@
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>14</v>
@@ -3715,16 +3671,16 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>12</v>
@@ -3738,16 +3694,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>12</v>
@@ -3761,16 +3717,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>12</v>
@@ -3784,16 +3740,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>12</v>
@@ -3807,16 +3763,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>12</v>
@@ -3830,22 +3786,22 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
@@ -3853,16 +3809,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>12</v>
@@ -3876,16 +3832,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>12</v>
@@ -3899,22 +3855,22 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.45">
@@ -3922,16 +3878,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>12</v>
@@ -3945,16 +3901,16 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>12</v>
@@ -3968,16 +3924,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>12</v>
@@ -3991,13 +3947,13 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>14</v>
@@ -4014,22 +3970,22 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.45">
@@ -4037,22 +3993,22 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.45">
@@ -4060,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -4069,13 +4025,13 @@
         <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.45">
@@ -4083,22 +4039,22 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.45">
@@ -4106,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -4115,7 +4071,7 @@
         <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>12</v>
@@ -4129,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -4138,7 +4094,7 @@
         <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>12</v>
@@ -4152,22 +4108,22 @@
         <v>7</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.45">
@@ -4175,22 +4131,22 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.45">
@@ -4198,13 +4154,13 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -4221,22 +4177,22 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.45">
@@ -4244,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -4253,13 +4209,13 @@
         <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.45">
@@ -4267,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4276,7 +4232,7 @@
         <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>12</v>
@@ -4290,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4299,7 +4255,7 @@
         <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>12</v>
@@ -4313,16 +4269,16 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>12</v>
@@ -4336,22 +4292,22 @@
         <v>7</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
@@ -4359,22 +4315,22 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
@@ -4382,19 +4338,19 @@
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>13</v>
@@ -4405,13 +4361,13 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
@@ -4428,13 +4384,13 @@
         <v>7</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>14</v>
@@ -4451,22 +4407,22 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
@@ -4474,22 +4430,22 @@
         <v>7</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
@@ -4497,22 +4453,22 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
@@ -4520,7 +4476,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4529,10 +4485,10 @@
         <v>143</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>13</v>
@@ -4543,16 +4499,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>12</v>
@@ -4566,7 +4522,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4575,13 +4531,13 @@
         <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
@@ -4589,22 +4545,22 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
@@ -4612,16 +4568,16 @@
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>12</v>
@@ -4635,22 +4591,22 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
@@ -4658,22 +4614,22 @@
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
@@ -4681,16 +4637,16 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>13</v>
@@ -4704,7 +4660,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4727,7 +4683,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4750,16 +4706,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
@@ -4773,16 +4729,16 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>13</v>
@@ -4796,22 +4752,22 @@
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
@@ -4819,22 +4775,22 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
@@ -4842,22 +4798,22 @@
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
@@ -4865,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4874,7 +4830,7 @@
         <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>13</v>
@@ -4888,13 +4844,13 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>11</v>
@@ -4911,13 +4867,13 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>14</v>
@@ -4934,16 +4890,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>13</v>
@@ -4957,16 +4913,16 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>13</v>
@@ -4980,22 +4936,22 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
@@ -5003,22 +4959,22 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.45">
@@ -5026,22 +4982,22 @@
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.45">
@@ -5049,22 +5005,22 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.45">
@@ -5072,13 +5028,13 @@
         <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>11</v>
@@ -5095,22 +5051,22 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.45">
@@ -5118,22 +5074,22 @@
         <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.45">
@@ -5141,22 +5097,22 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.45">
@@ -5164,13 +5120,13 @@
         <v>7</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>11</v>
@@ -5187,16 +5143,16 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>12</v>
@@ -5210,16 +5166,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>12</v>
@@ -5233,16 +5189,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>12</v>
@@ -5256,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>11</v>
@@ -5279,22 +5235,22 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.45">
@@ -5302,16 +5258,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>12</v>
@@ -5325,13 +5281,13 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>14</v>
@@ -5340,535 +5296,6 @@
         <v>12</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A195" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A196" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A199" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A200" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A201" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A202" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A204" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A205" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A206" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A207" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A208" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A209" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A210" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A211" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A212" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A213" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="3" t="s">
         <v>13</v>
       </c>
     </row>
